--- a/I3MS_FORM_F1/form f1 collectror.xlsx
+++ b/I3MS_FORM_F1/form f1 collectror.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <x:si>
     <x:t>Grades
 (% of Fe-content)</x:t>
@@ -66,19 +66,19 @@
     <x:t>(i)Lumps:-</x:t>
   </x:si>
   <x:si>
-    <x:t>O.M.C. Ltd. (Roida  C)</x:t>
+    <x:t>TATA Steel Ltd. (Khandbandh)</x:t>
   </x:si>
   <x:si>
     <x:t>Iron Ore</x:t>
   </x:si>
   <x:si>
-    <x:t>August</x:t>
+    <x:t>June</x:t>
   </x:si>
   <x:si>
     <x:t>2020</x:t>
   </x:si>
   <x:si>
-    <x:t>15-Sep-2020 18:46:57</x:t>
+    <x:t>22-Sep-2020 08:01:26</x:t>
   </x:si>
   <x:si>
     <x:t>(a) Below 55%</x:t>
@@ -96,76 +96,52 @@
     <x:t>(d) 60% to below 62%</x:t>
   </x:si>
   <x:si>
+    <x:t>2078.600</x:t>
+  </x:si>
+  <x:si>
     <x:t>(e) 62% to below 65%</x:t>
   </x:si>
   <x:si>
-    <x:t>15765.790</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14508.000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9112.220</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21161.570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4208.290</x:t>
+    <x:t>195.680</x:t>
   </x:si>
   <x:si>
     <x:t>(f) 65% and above.</x:t>
   </x:si>
   <x:si>
-    <x:t>248.970</x:t>
+    <x:t>370380.990</x:t>
   </x:si>
   <x:si>
-    <x:t>4786.000</x:t>
+    <x:t>139072.920</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100664.960</x:t>
+  </x:si>
+  <x:si>
+    <x:t>408788.950</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1671.600</x:t>
   </x:si>
   <x:si>
     <x:t>(ii)Fines:-</x:t>
   </x:si>
   <x:si>
-    <x:t>59706.457</x:t>
+    <x:t>56888.150</x:t>
   </x:si>
   <x:si>
-    <x:t>894.000</x:t>
+    <x:t>337600.971</x:t>
   </x:si>
   <x:si>
-    <x:t>97867.970</x:t>
+    <x:t>126957.160</x:t>
   </x:si>
   <x:si>
-    <x:t>7812.000</x:t>
+    <x:t>191820.300</x:t>
   </x:si>
   <x:si>
-    <x:t>7361.560</x:t>
+    <x:t>272737.831</x:t>
   </x:si>
   <x:si>
-    <x:t>98318.410</x:t>
-  </x:si>
-  <x:si>
-    <x:t>822.150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35230.790</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5640.000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2341.050</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38529.740</x:t>
-  </x:si>
-  <x:si>
-    <x:t>680.430</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40.770</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1536.000</x:t>
+    <x:t>1393142.994</x:t>
   </x:si>
   <x:si>
     <x:t>(iii)Concentrates</x:t>
@@ -502,12 +478,1212 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1683">
+  <x:cellStyleXfs count="2083">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6102,7 +7278,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B6" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C6" s="7" t="s">
         <x:v>18</x:v>
@@ -6111,7 +7287,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F6" s="7" t="s">
         <x:v>18</x:v>
@@ -6134,22 +7310,22 @@
     </x:row>
     <x:row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A7" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B7" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C7" s="7" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D7" s="7" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E7" s="7" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D7" s="7" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E7" s="7" t="s">
-        <x:v>26</x:v>
-      </x:c>
       <x:c r="F7" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G7" s="7" t="s">
         <x:v>12</x:v>
@@ -6169,16 +7345,16 @@
     </x:row>
     <x:row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A8" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B8" s="7" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C8" s="7" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D8" s="7" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="B8" s="7" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C8" s="7" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D8" s="7" t="s">
-        <x:v>18</x:v>
       </x:c>
       <x:c r="E8" s="7" t="s">
         <x:v>29</x:v>
@@ -6242,7 +7418,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B10" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C10" s="7" t="s">
         <x:v>18</x:v>
@@ -6251,10 +7427,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E10" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F10" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G10" s="7" t="s">
         <x:v>12</x:v>
@@ -6277,19 +7453,19 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B11" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C11" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E11" s="7" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>38</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G11" s="7" t="s">
         <x:v>12</x:v>
@@ -6312,19 +7488,19 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C12" s="7" t="s">
-        <x:v>40</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D12" s="7" t="s">
-        <x:v>41</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E12" s="7" t="s">
-        <x:v>42</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>43</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G12" s="7" t="s">
         <x:v>12</x:v>
@@ -6347,7 +7523,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B13" s="7" t="s">
-        <x:v>44</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C13" s="7" t="s">
         <x:v>18</x:v>
@@ -6356,10 +7532,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E13" s="7" t="s">
-        <x:v>44</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F13" s="7" t="s">
-        <x:v>45</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G13" s="7" t="s">
         <x:v>12</x:v>
@@ -6379,22 +7555,22 @@
     </x:row>
     <x:row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A14" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B14" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C14" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D14" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E14" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F14" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G14" s="7" t="s">
         <x:v>12</x:v>
@@ -6414,10 +7590,10 @@
     </x:row>
     <x:row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A15" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B15" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C15" s="7" t="s">
         <x:v>18</x:v>
@@ -6426,7 +7602,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E15" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
         <x:v>18</x:v>
@@ -6449,7 +7625,7 @@
     </x:row>
     <x:row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A16" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B16" s="7" t="s">
         <x:v>18</x:v>
@@ -6484,22 +7660,22 @@
     </x:row>
     <x:row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A17" s="7" t="s">
-        <x:v>47</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B17" s="7" t="s">
-        <x:v>47</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C17" s="7" t="s">
-        <x:v>47</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D17" s="7" t="s">
-        <x:v>47</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E17" s="7" t="s">
-        <x:v>47</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F17" s="7" t="s">
-        <x:v>47</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G17" s="7" t="s">
         <x:v>12</x:v>
@@ -6519,22 +7695,22 @@
     </x:row>
     <x:row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A18" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B18" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C18" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D18" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E18" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F18" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G18" s="7" t="s">
         <x:v>12</x:v>
@@ -6582,7 +7758,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A1" s="7" t="s">
-        <x:v>49</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B1" s="7" t="s">
         <x:v>1</x:v>
@@ -6594,51 +7770,51 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E1" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F1" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G1" s="7" t="s">
-        <x:v>52</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H1" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I1" s="7" t="s">
-        <x:v>54</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J1" s="7" t="s">
-        <x:v>55</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A2" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B2" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C2" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D2" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E2" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F2" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G2" s="7" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H2" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I2" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J2" s="7" t="s">
         <x:v>15</x:v>
@@ -6646,10 +7822,10 @@
     </x:row>
     <x:row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A3" s="7" t="s">
-        <x:v>60</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B3" s="7" t="s">
-        <x:v>61</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C3" s="7" t="s">
         <x:v>18</x:v>
@@ -6658,19 +7834,19 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E3" s="7" t="s">
-        <x:v>61</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F3" s="7" t="s">
-        <x:v>62</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G3" s="7" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H3" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I3" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J3" s="7" t="s">
         <x:v>15</x:v>
@@ -6678,10 +7854,10 @@
     </x:row>
     <x:row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A4" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B4" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C4" s="7" t="s">
         <x:v>18</x:v>
@@ -6690,19 +7866,19 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E4" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F4" s="7" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="G4" s="7" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H4" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I4" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J4" s="7" t="s">
         <x:v>15</x:v>
@@ -6710,7 +7886,7 @@
     </x:row>
     <x:row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A5" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B5" s="7" t="s">
         <x:v>18</x:v>
@@ -6728,13 +7904,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G5" s="7" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H5" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I5" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J5" s="7" t="s">
         <x:v>15</x:v>
@@ -6742,31 +7918,31 @@
     </x:row>
     <x:row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A6" s="7" t="s">
-        <x:v>66</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B6" s="7" t="s">
-        <x:v>66</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C6" s="7" t="s">
-        <x:v>66</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D6" s="7" t="s">
-        <x:v>66</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E6" s="7" t="s">
-        <x:v>66</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F6" s="7" t="s">
-        <x:v>66</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G6" s="7" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H6" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I6" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J6" s="7" t="s">
         <x:v>15</x:v>
@@ -6774,31 +7950,31 @@
     </x:row>
     <x:row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A7" s="7" t="s">
-        <x:v>60</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B7" s="7" t="s">
-        <x:v>67</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C7" s="7" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D7" s="7" t="s">
-        <x:v>68</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E7" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F7" s="7" t="s">
-        <x:v>70</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G7" s="7" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I7" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J7" s="7" t="s">
         <x:v>15</x:v>
@@ -6806,31 +7982,31 @@
     </x:row>
     <x:row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A8" s="7" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B8" s="7" t="s">
         <x:v>63</x:v>
-      </x:c>
-      <x:c r="B8" s="7" t="s">
-        <x:v>71</x:v>
       </x:c>
       <x:c r="C8" s="7" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D8" s="7" t="s">
-        <x:v>72</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E8" s="7" t="s">
-        <x:v>73</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F8" s="7" t="s">
-        <x:v>74</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G8" s="7" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H8" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I8" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J8" s="7" t="s">
         <x:v>15</x:v>
@@ -6838,31 +8014,31 @@
     </x:row>
     <x:row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A9" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B9" s="7" t="s">
-        <x:v>75</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D9" s="7" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E9" s="7" t="s">
-        <x:v>77</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>78</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G9" s="7" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H9" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I9" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J9" s="7" t="s">
         <x:v>15</x:v>
@@ -6870,31 +8046,31 @@
     </x:row>
     <x:row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A10" s="7" t="s">
-        <x:v>79</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B10" s="7" t="s">
-        <x:v>80</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C10" s="7" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D10" s="7" t="s">
-        <x:v>81</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E10" s="7" t="s">
-        <x:v>82</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F10" s="7" t="s">
-        <x:v>83</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G10" s="7" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H10" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I10" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J10" s="7" t="s">
         <x:v>15</x:v>
@@ -6902,31 +8078,31 @@
     </x:row>
     <x:row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A11" s="7" t="s">
-        <x:v>47</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B11" s="7" t="s">
-        <x:v>47</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C11" s="7" t="s">
-        <x:v>47</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
-        <x:v>47</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E11" s="7" t="s">
-        <x:v>47</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>47</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G11" s="7" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I11" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J11" s="7" t="s">
         <x:v>15</x:v>
@@ -6934,31 +8110,31 @@
     </x:row>
     <x:row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A12" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B12" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C12" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D12" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E12" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G12" s="7" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H12" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I12" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J12" s="7" t="s">
         <x:v>15</x:v>
@@ -6997,33 +8173,33 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A1" s="9" t="s">
-        <x:v>84</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B1" s="10" t="s">
-        <x:v>85</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C1" s="11" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="11" t="s">
-        <x:v>86</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E1" s="11" t="s">
-        <x:v>87</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F1" s="11" t="s">
-        <x:v>88</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G1" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H1" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A2" s="7" t="s">
-        <x:v>89</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B2" s="7" t="s">
         <x:v>18</x:v>
@@ -7038,18 +8214,18 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F2" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G2" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H2" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A3" s="7" t="s">
-        <x:v>93</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B3" s="7" t="s">
         <x:v>18</x:v>
@@ -7064,18 +8240,18 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F3" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G3" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H3" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A4" s="7" t="s">
-        <x:v>94</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B4" s="7" t="s">
         <x:v>18</x:v>
@@ -7090,18 +8266,18 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F4" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G4" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H4" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A5" s="7" t="s">
-        <x:v>95</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B5" s="7" t="s">
         <x:v>18</x:v>
@@ -7116,18 +8292,18 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F5" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G5" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H5" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A6" s="7" t="s">
-        <x:v>96</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B6" s="7" t="s">
         <x:v>18</x:v>
@@ -7142,18 +8318,18 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F6" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G6" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H6" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A7" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B7" s="7" t="s">
         <x:v>18</x:v>
@@ -7168,18 +8344,18 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F7" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G7" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A8" s="7" t="s">
-        <x:v>98</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B8" s="7" t="s">
         <x:v>18</x:v>
@@ -7194,18 +8370,18 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F8" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G8" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H8" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A9" s="7" t="s">
-        <x:v>99</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B9" s="7" t="s">
         <x:v>18</x:v>
@@ -7220,18 +8396,18 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G9" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H9" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A10" s="7" t="s">
-        <x:v>100</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B10" s="7" t="s">
         <x:v>18</x:v>
@@ -7246,13 +8422,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F10" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G10" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H10" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
@@ -7294,39 +8470,39 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A1" s="7" t="s">
-        <x:v>101</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B1" s="7" t="s">
-        <x:v>85</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C1" s="7" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="7" t="s">
-        <x:v>86</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E1" s="7" t="s">
-        <x:v>87</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F1" s="7" t="s">
-        <x:v>88</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G1" s="7" t="s">
-        <x:v>52</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H1" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I1" s="7" t="s">
-        <x:v>54</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J1" s="7" t="s">
-        <x:v>55</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A2" s="7" t="s">
-        <x:v>89</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B2" s="7" t="s">
         <x:v>18</x:v>
@@ -7341,16 +8517,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F2" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G2" s="7" t="s">
-        <x:v>102</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H2" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I2" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J2" s="7" t="s">
         <x:v>15</x:v>
@@ -7358,7 +8534,7 @@
     </x:row>
     <x:row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A3" s="7" t="s">
-        <x:v>93</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B3" s="7" t="s">
         <x:v>18</x:v>
@@ -7373,16 +8549,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F3" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G3" s="7" t="s">
-        <x:v>102</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H3" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I3" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J3" s="7" t="s">
         <x:v>15</x:v>
@@ -7390,7 +8566,7 @@
     </x:row>
     <x:row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A4" s="7" t="s">
-        <x:v>94</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B4" s="7" t="s">
         <x:v>18</x:v>
@@ -7405,16 +8581,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F4" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G4" s="7" t="s">
-        <x:v>102</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H4" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I4" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J4" s="7" t="s">
         <x:v>15</x:v>
@@ -7422,7 +8598,7 @@
     </x:row>
     <x:row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A5" s="7" t="s">
-        <x:v>95</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B5" s="7" t="s">
         <x:v>18</x:v>
@@ -7437,16 +8613,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F5" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G5" s="7" t="s">
-        <x:v>102</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H5" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I5" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J5" s="7" t="s">
         <x:v>15</x:v>
@@ -7454,7 +8630,7 @@
     </x:row>
     <x:row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A6" s="7" t="s">
-        <x:v>96</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B6" s="7" t="s">
         <x:v>18</x:v>
@@ -7469,16 +8645,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F6" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G6" s="7" t="s">
-        <x:v>102</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H6" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I6" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J6" s="7" t="s">
         <x:v>15</x:v>
@@ -7486,7 +8662,7 @@
     </x:row>
     <x:row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A7" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B7" s="7" t="s">
         <x:v>18</x:v>
@@ -7501,16 +8677,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F7" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G7" s="7" t="s">
-        <x:v>102</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I7" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J7" s="7" t="s">
         <x:v>15</x:v>
@@ -7518,7 +8694,7 @@
     </x:row>
     <x:row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A8" s="7" t="s">
-        <x:v>98</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B8" s="7" t="s">
         <x:v>18</x:v>
@@ -7533,16 +8709,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F8" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G8" s="7" t="s">
-        <x:v>102</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H8" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I8" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J8" s="7" t="s">
         <x:v>15</x:v>
@@ -7550,7 +8726,7 @@
     </x:row>
     <x:row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A9" s="7" t="s">
-        <x:v>99</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B9" s="7" t="s">
         <x:v>18</x:v>
@@ -7565,16 +8741,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G9" s="7" t="s">
-        <x:v>102</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H9" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I9" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J9" s="7" t="s">
         <x:v>15</x:v>
@@ -7582,7 +8758,7 @@
     </x:row>
     <x:row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A10" s="7" t="s">
-        <x:v>100</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B10" s="7" t="s">
         <x:v>18</x:v>
@@ -7597,16 +8773,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F10" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G10" s="7" t="s">
-        <x:v>102</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H10" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I10" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="J10" s="7" t="s">
         <x:v>15</x:v>
@@ -7645,28 +8821,28 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A1" s="9" t="s">
-        <x:v>101</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B1" s="10" t="s">
-        <x:v>85</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C1" s="11" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="11" t="s">
-        <x:v>86</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E1" s="11" t="s">
-        <x:v>87</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F1" s="11" t="s">
-        <x:v>88</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G1" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H1" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -7689,7 +8865,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G2" s="7" t="s">
-        <x:v>103</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H2" s="7" t="s">
         <x:v>13</x:v>
@@ -7715,7 +8891,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G3" s="7" t="s">
-        <x:v>103</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H3" s="7" t="s">
         <x:v>13</x:v>
@@ -7741,7 +8917,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G4" s="7" t="s">
-        <x:v>103</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H4" s="7" t="s">
         <x:v>13</x:v>
@@ -7767,7 +8943,7 @@
         <x:v>500</x:v>
       </x:c>
       <x:c r="G5" s="7" t="s">
-        <x:v>103</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H5" s="7" t="s">
         <x:v>13</x:v>
@@ -7775,7 +8951,7 @@
     </x:row>
     <x:row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A6" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B6" s="7" t="n">
         <x:v>0</x:v>
@@ -7793,7 +8969,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G6" s="7" t="s">
-        <x:v>103</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H6" s="7" t="s">
         <x:v>13</x:v>
@@ -7801,7 +8977,7 @@
     </x:row>
     <x:row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A7" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B7" s="7" t="n">
         <x:v>0</x:v>
@@ -7819,7 +8995,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G7" s="7" t="s">
-        <x:v>103</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
         <x:v>13</x:v>
@@ -7845,7 +9021,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G8" s="7" t="s">
-        <x:v>104</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H8" s="7" t="s">
         <x:v>13</x:v>
@@ -7871,7 +9047,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G9" s="7" t="s">
-        <x:v>104</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H9" s="7" t="s">
         <x:v>13</x:v>
@@ -7897,7 +9073,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G10" s="7" t="s">
-        <x:v>104</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H10" s="7" t="s">
         <x:v>13</x:v>
@@ -7923,7 +9099,7 @@
         <x:v>3000</x:v>
       </x:c>
       <x:c r="G11" s="7" t="s">
-        <x:v>104</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
         <x:v>13</x:v>
@@ -7931,7 +9107,7 @@
     </x:row>
     <x:row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A12" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B12" s="7" t="n">
         <x:v>5126.53</x:v>
@@ -7949,7 +9125,7 @@
         <x:v>4550</x:v>
       </x:c>
       <x:c r="G12" s="7" t="s">
-        <x:v>104</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H12" s="7" t="s">
         <x:v>13</x:v>
@@ -7957,7 +9133,7 @@
     </x:row>
     <x:row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A13" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B13" s="7" t="n">
         <x:v>20778.334</x:v>
@@ -7975,7 +9151,7 @@
         <x:v>4550</x:v>
       </x:c>
       <x:c r="G13" s="7" t="s">
-        <x:v>104</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H13" s="7" t="s">
         <x:v>13</x:v>
@@ -7983,7 +9159,7 @@
     </x:row>
     <x:row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A14" s="7" t="s">
-        <x:v>60</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B14" s="7" t="n">
         <x:v>0</x:v>
@@ -8001,15 +9177,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G14" s="7" t="s">
-        <x:v>105</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H14" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A15" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B15" s="7" t="n">
         <x:v>0</x:v>
@@ -8027,15 +9203,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G15" s="7" t="s">
-        <x:v>105</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A16" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B16" s="7" t="n">
         <x:v>0</x:v>
@@ -8053,10 +9229,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G16" s="7" t="s">
-        <x:v>105</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H16" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -8079,7 +9255,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G17" s="7" t="s">
-        <x:v>106</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H17" s="7" t="s">
         <x:v>13</x:v>
@@ -8105,7 +9281,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G18" s="7" t="s">
-        <x:v>106</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H18" s="7" t="s">
         <x:v>13</x:v>
@@ -8131,7 +9307,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>106</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
         <x:v>13</x:v>
@@ -8157,7 +9333,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G20" s="7" t="s">
-        <x:v>106</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H20" s="7" t="s">
         <x:v>13</x:v>
@@ -8165,7 +9341,7 @@
     </x:row>
     <x:row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A21" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B21" s="7" t="n">
         <x:v>0</x:v>
@@ -8183,7 +9359,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G21" s="7" t="s">
-        <x:v>106</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H21" s="7" t="s">
         <x:v>13</x:v>
@@ -8191,7 +9367,7 @@
     </x:row>
     <x:row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A22" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B22" s="7" t="n">
         <x:v>0</x:v>
@@ -8209,7 +9385,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G22" s="7" t="s">
-        <x:v>106</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H22" s="7" t="s">
         <x:v>13</x:v>
@@ -8235,7 +9411,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G23" s="7" t="s">
-        <x:v>107</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H23" s="7" t="s">
         <x:v>13</x:v>
@@ -8261,7 +9437,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G24" s="7" t="s">
-        <x:v>107</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H24" s="7" t="s">
         <x:v>13</x:v>
@@ -8287,7 +9463,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G25" s="7" t="s">
-        <x:v>107</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H25" s="7" t="s">
         <x:v>13</x:v>
@@ -8313,7 +9489,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G26" s="7" t="s">
-        <x:v>107</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H26" s="7" t="s">
         <x:v>13</x:v>
@@ -8321,7 +9497,7 @@
     </x:row>
     <x:row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A27" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B27" s="7" t="n">
         <x:v>0</x:v>
@@ -8339,7 +9515,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G27" s="7" t="s">
-        <x:v>107</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H27" s="7" t="s">
         <x:v>13</x:v>
@@ -8347,7 +9523,7 @@
     </x:row>
     <x:row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A28" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B28" s="7" t="n">
         <x:v>0</x:v>
@@ -8365,7 +9541,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G28" s="7" t="s">
-        <x:v>107</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H28" s="7" t="s">
         <x:v>13</x:v>
@@ -8373,7 +9549,7 @@
     </x:row>
     <x:row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A29" s="7" t="s">
-        <x:v>60</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B29" s="7" t="n">
         <x:v>235.077</x:v>
@@ -8391,15 +9567,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G29" s="7" t="s">
-        <x:v>108</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H29" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A30" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B30" s="7" t="n">
         <x:v>0.022</x:v>
@@ -8417,15 +9593,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G30" s="7" t="s">
-        <x:v>108</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H30" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A31" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B31" s="7" t="n">
         <x:v>0</x:v>
@@ -8443,10 +9619,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G31" s="7" t="s">
-        <x:v>108</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H31" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -8469,7 +9645,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G32" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H32" s="7" t="s">
         <x:v>13</x:v>
@@ -8495,7 +9671,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G33" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H33" s="7" t="s">
         <x:v>13</x:v>
@@ -8521,7 +9697,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G34" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H34" s="7" t="s">
         <x:v>13</x:v>
@@ -8547,7 +9723,7 @@
         <x:v>2686</x:v>
       </x:c>
       <x:c r="G35" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H35" s="7" t="s">
         <x:v>13</x:v>
@@ -8555,7 +9731,7 @@
     </x:row>
     <x:row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A36" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B36" s="7" t="n">
         <x:v>203819.73</x:v>
@@ -8573,7 +9749,7 @@
         <x:v>3676</x:v>
       </x:c>
       <x:c r="G36" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H36" s="7" t="s">
         <x:v>13</x:v>
@@ -8581,7 +9757,7 @@
     </x:row>
     <x:row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A37" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B37" s="7" t="n">
         <x:v>23988.86</x:v>
@@ -8599,7 +9775,7 @@
         <x:v>4835</x:v>
       </x:c>
       <x:c r="G37" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H37" s="7" t="s">
         <x:v>13</x:v>
@@ -8625,7 +9801,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G38" s="7" t="s">
-        <x:v>110</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H38" s="7" t="s">
         <x:v>13</x:v>
@@ -8651,7 +9827,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G39" s="7" t="s">
-        <x:v>110</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H39" s="7" t="s">
         <x:v>13</x:v>
@@ -8677,7 +9853,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G40" s="7" t="s">
-        <x:v>110</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H40" s="7" t="s">
         <x:v>13</x:v>
@@ -8703,7 +9879,7 @@
         <x:v>2125.97</x:v>
       </x:c>
       <x:c r="G41" s="7" t="s">
-        <x:v>110</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H41" s="7" t="s">
         <x:v>13</x:v>
@@ -8711,7 +9887,7 @@
     </x:row>
     <x:row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A42" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B42" s="7" t="n">
         <x:v>158613.346</x:v>
@@ -8729,7 +9905,7 @@
         <x:v>3538.5</x:v>
       </x:c>
       <x:c r="G42" s="7" t="s">
-        <x:v>110</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H42" s="7" t="s">
         <x:v>13</x:v>
@@ -8737,7 +9913,7 @@
     </x:row>
     <x:row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A43" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B43" s="7" t="n">
         <x:v>0.1</x:v>
@@ -8755,7 +9931,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G43" s="7" t="s">
-        <x:v>110</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H43" s="7" t="s">
         <x:v>13</x:v>
@@ -8763,7 +9939,7 @@
     </x:row>
     <x:row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A44" s="7" t="s">
-        <x:v>60</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B44" s="7" t="n">
         <x:v>0</x:v>
@@ -8781,15 +9957,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G44" s="7" t="s">
-        <x:v>111</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H44" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A45" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B45" s="7" t="n">
         <x:v>0</x:v>
@@ -8807,15 +9983,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G45" s="7" t="s">
-        <x:v>111</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H45" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A46" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B46" s="7" t="n">
         <x:v>0</x:v>
@@ -8833,15 +10009,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G46" s="7" t="s">
-        <x:v>111</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H46" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A47" s="7" t="s">
-        <x:v>60</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B47" s="7" t="n">
         <x:v>0</x:v>
@@ -8859,15 +10035,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G47" s="7" t="s">
-        <x:v>112</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H47" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A48" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B48" s="7" t="n">
         <x:v>0</x:v>
@@ -8885,15 +10061,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G48" s="7" t="s">
-        <x:v>112</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H48" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A49" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B49" s="7" t="n">
         <x:v>0</x:v>
@@ -8911,10 +10087,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G49" s="7" t="s">
-        <x:v>112</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H49" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -8937,7 +10113,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G50" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H50" s="7" t="s">
         <x:v>13</x:v>
@@ -8963,7 +10139,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G51" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H51" s="7" t="s">
         <x:v>13</x:v>
@@ -8989,7 +10165,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G52" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H52" s="7" t="s">
         <x:v>13</x:v>
@@ -9015,7 +10191,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G53" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H53" s="7" t="s">
         <x:v>13</x:v>
@@ -9023,7 +10199,7 @@
     </x:row>
     <x:row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A54" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B54" s="7" t="n">
         <x:v>0</x:v>
@@ -9041,7 +10217,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G54" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H54" s="7" t="s">
         <x:v>13</x:v>
@@ -9049,7 +10225,7 @@
     </x:row>
     <x:row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A55" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B55" s="7" t="n">
         <x:v>0</x:v>
@@ -9067,7 +10243,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G55" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H55" s="7" t="s">
         <x:v>13</x:v>
@@ -9093,7 +10269,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G56" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H56" s="7" t="s">
         <x:v>13</x:v>
@@ -9119,7 +10295,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G57" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H57" s="7" t="s">
         <x:v>13</x:v>
@@ -9145,7 +10321,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G58" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H58" s="7" t="s">
         <x:v>13</x:v>
@@ -9171,7 +10347,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G59" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H59" s="7" t="s">
         <x:v>13</x:v>
@@ -9179,7 +10355,7 @@
     </x:row>
     <x:row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A60" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B60" s="7" t="n">
         <x:v>367.94</x:v>
@@ -9197,7 +10373,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G60" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H60" s="7" t="s">
         <x:v>13</x:v>
@@ -9205,7 +10381,7 @@
     </x:row>
     <x:row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A61" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B61" s="7" t="n">
         <x:v>0</x:v>
@@ -9223,7 +10399,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G61" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H61" s="7" t="s">
         <x:v>13</x:v>
@@ -9249,7 +10425,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G62" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H62" s="7" t="s">
         <x:v>13</x:v>
@@ -9275,7 +10451,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G63" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H63" s="7" t="s">
         <x:v>13</x:v>
@@ -9301,7 +10477,7 @@
         <x:v>2248.822</x:v>
       </x:c>
       <x:c r="G64" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H64" s="7" t="s">
         <x:v>13</x:v>
@@ -9327,7 +10503,7 @@
         <x:v>3150.708</x:v>
       </x:c>
       <x:c r="G65" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H65" s="7" t="s">
         <x:v>13</x:v>
@@ -9335,7 +10511,7 @@
     </x:row>
     <x:row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A66" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B66" s="7" t="n">
         <x:v>282.34</x:v>
@@ -9353,7 +10529,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G66" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H66" s="7" t="s">
         <x:v>13</x:v>
@@ -9361,7 +10537,7 @@
     </x:row>
     <x:row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A67" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B67" s="7" t="n">
         <x:v>0</x:v>
@@ -9379,7 +10555,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G67" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H67" s="7" t="s">
         <x:v>13</x:v>
@@ -9387,7 +10563,7 @@
     </x:row>
     <x:row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A68" s="7" t="s">
-        <x:v>60</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B68" s="7" t="n">
         <x:v>1423.93</x:v>
@@ -9405,15 +10581,15 @@
         <x:v>5617.1</x:v>
       </x:c>
       <x:c r="G68" s="7" t="s">
-        <x:v>116</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H68" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A69" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B69" s="7" t="n">
         <x:v>17629.41</x:v>
@@ -9431,15 +10607,15 @@
         <x:v>5617.1</x:v>
       </x:c>
       <x:c r="G69" s="7" t="s">
-        <x:v>116</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H69" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A70" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B70" s="7" t="n">
         <x:v>0</x:v>
@@ -9457,15 +10633,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G70" s="7" t="s">
-        <x:v>116</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H70" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A71" s="7" t="s">
-        <x:v>60</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B71" s="7" t="n">
         <x:v>265.76</x:v>
@@ -9483,15 +10659,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G71" s="7" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="H71" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A72" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B72" s="7" t="n">
         <x:v>0.01</x:v>
@@ -9509,15 +10685,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G72" s="7" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="H72" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A73" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B73" s="7" t="n">
         <x:v>0</x:v>
@@ -9535,10 +10711,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G73" s="7" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="H73" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -9561,7 +10737,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G74" s="7" t="s">
-        <x:v>118</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H74" s="7" t="s">
         <x:v>13</x:v>
@@ -9587,7 +10763,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G75" s="7" t="s">
-        <x:v>118</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H75" s="7" t="s">
         <x:v>13</x:v>
@@ -9613,7 +10789,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G76" s="7" t="s">
-        <x:v>118</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H76" s="7" t="s">
         <x:v>13</x:v>
@@ -9639,7 +10815,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G77" s="7" t="s">
-        <x:v>118</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H77" s="7" t="s">
         <x:v>13</x:v>
@@ -9647,7 +10823,7 @@
     </x:row>
     <x:row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A78" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B78" s="7" t="n">
         <x:v>168840.542</x:v>
@@ -9665,7 +10841,7 @@
         <x:v>3252</x:v>
       </x:c>
       <x:c r="G78" s="7" t="s">
-        <x:v>118</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H78" s="7" t="s">
         <x:v>13</x:v>
@@ -9673,7 +10849,7 @@
     </x:row>
     <x:row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A79" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B79" s="7" t="n">
         <x:v>0</x:v>
@@ -9691,7 +10867,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G79" s="7" t="s">
-        <x:v>118</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H79" s="7" t="s">
         <x:v>13</x:v>
@@ -9717,7 +10893,7 @@
         <x:v>3061.2</x:v>
       </x:c>
       <x:c r="G80" s="7" t="s">
-        <x:v>119</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H80" s="7" t="s">
         <x:v>13</x:v>
@@ -9743,7 +10919,7 @@
         <x:v>2480.07</x:v>
       </x:c>
       <x:c r="G81" s="7" t="s">
-        <x:v>119</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H81" s="7" t="s">
         <x:v>13</x:v>
@@ -9769,7 +10945,7 @@
         <x:v>2686</x:v>
       </x:c>
       <x:c r="G82" s="7" t="s">
-        <x:v>119</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H82" s="7" t="s">
         <x:v>13</x:v>
@@ -9795,7 +10971,7 @@
         <x:v>3500</x:v>
       </x:c>
       <x:c r="G83" s="7" t="s">
-        <x:v>119</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H83" s="7" t="s">
         <x:v>13</x:v>
@@ -9803,7 +10979,7 @@
     </x:row>
     <x:row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A84" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B84" s="7" t="n">
         <x:v>18.58</x:v>
@@ -9821,7 +10997,7 @@
         <x:v>3553</x:v>
       </x:c>
       <x:c r="G84" s="7" t="s">
-        <x:v>119</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H84" s="7" t="s">
         <x:v>13</x:v>
@@ -9829,7 +11005,7 @@
     </x:row>
     <x:row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A85" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B85" s="7" t="n">
         <x:v>0</x:v>
@@ -9847,7 +11023,7 @@
         <x:v>4835</x:v>
       </x:c>
       <x:c r="G85" s="7" t="s">
-        <x:v>119</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H85" s="7" t="s">
         <x:v>13</x:v>
@@ -9855,7 +11031,7 @@
     </x:row>
     <x:row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A86" s="7" t="s">
-        <x:v>60</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B86" s="7" t="n">
         <x:v>1902.857</x:v>
@@ -9873,15 +11049,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G86" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H86" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A87" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B87" s="7" t="n">
         <x:v>0.93</x:v>
@@ -9899,15 +11075,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G87" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H87" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A88" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B88" s="7" t="n">
         <x:v>0</x:v>
@@ -9925,10 +11101,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G88" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H88" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -9951,7 +11127,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G89" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H89" s="7" t="s">
         <x:v>13</x:v>
@@ -9977,7 +11153,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G90" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H90" s="7" t="s">
         <x:v>13</x:v>
@@ -10003,7 +11179,7 @@
         <x:v>2100</x:v>
       </x:c>
       <x:c r="G91" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H91" s="7" t="s">
         <x:v>13</x:v>
@@ -10029,7 +11205,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G92" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H92" s="7" t="s">
         <x:v>13</x:v>
@@ -10037,7 +11213,7 @@
     </x:row>
     <x:row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A93" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B93" s="7" t="n">
         <x:v>2924.906</x:v>
@@ -10055,7 +11231,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G93" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H93" s="7" t="s">
         <x:v>13</x:v>
@@ -10063,7 +11239,7 @@
     </x:row>
     <x:row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A94" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B94" s="7" t="n">
         <x:v>1660.23</x:v>
@@ -10081,7 +11257,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G94" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H94" s="7" t="s">
         <x:v>13</x:v>
@@ -10107,7 +11283,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G95" s="7" t="s">
-        <x:v>122</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H95" s="7" t="s">
         <x:v>13</x:v>
@@ -10133,7 +11309,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G96" s="7" t="s">
-        <x:v>122</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H96" s="7" t="s">
         <x:v>13</x:v>
@@ -10159,7 +11335,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G97" s="7" t="s">
-        <x:v>122</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H97" s="7" t="s">
         <x:v>13</x:v>
@@ -10185,7 +11361,7 @@
         <x:v>613.84</x:v>
       </x:c>
       <x:c r="G98" s="7" t="s">
-        <x:v>122</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H98" s="7" t="s">
         <x:v>13</x:v>
@@ -10193,7 +11369,7 @@
     </x:row>
     <x:row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A99" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B99" s="7" t="n">
         <x:v>0</x:v>
@@ -10211,7 +11387,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G99" s="7" t="s">
-        <x:v>122</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H99" s="7" t="s">
         <x:v>13</x:v>
@@ -10219,7 +11395,7 @@
     </x:row>
     <x:row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A100" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B100" s="7" t="n">
         <x:v>0</x:v>
@@ -10237,7 +11413,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G100" s="7" t="s">
-        <x:v>122</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H100" s="7" t="s">
         <x:v>13</x:v>
@@ -10263,7 +11439,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G101" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H101" s="7" t="s">
         <x:v>13</x:v>
@@ -10289,7 +11465,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G102" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H102" s="7" t="s">
         <x:v>13</x:v>
@@ -10315,7 +11491,7 @@
         <x:v>2686</x:v>
       </x:c>
       <x:c r="G103" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H103" s="7" t="s">
         <x:v>13</x:v>
@@ -10341,7 +11517,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G104" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H104" s="7" t="s">
         <x:v>13</x:v>
@@ -10349,7 +11525,7 @@
     </x:row>
     <x:row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A105" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B105" s="7" t="n">
         <x:v>0</x:v>
@@ -10367,7 +11543,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G105" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H105" s="7" t="s">
         <x:v>13</x:v>
@@ -10375,7 +11551,7 @@
     </x:row>
     <x:row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A106" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B106" s="7" t="n">
         <x:v>0</x:v>
@@ -10393,7 +11569,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G106" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H106" s="7" t="s">
         <x:v>13</x:v>
@@ -10419,7 +11595,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G107" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H107" s="7" t="s">
         <x:v>13</x:v>
@@ -10445,7 +11621,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G108" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H108" s="7" t="s">
         <x:v>13</x:v>
@@ -10471,7 +11647,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G109" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H109" s="7" t="s">
         <x:v>13</x:v>
@@ -10497,7 +11673,7 @@
         <x:v>528.72</x:v>
       </x:c>
       <x:c r="G110" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H110" s="7" t="s">
         <x:v>13</x:v>
@@ -10505,7 +11681,7 @@
     </x:row>
     <x:row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A111" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B111" s="7" t="n">
         <x:v>0</x:v>
@@ -10523,7 +11699,7 @@
         <x:v>528.72</x:v>
       </x:c>
       <x:c r="G111" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H111" s="7" t="s">
         <x:v>13</x:v>
@@ -10531,7 +11707,7 @@
     </x:row>
     <x:row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A112" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B112" s="7" t="n">
         <x:v>0</x:v>
@@ -10549,7 +11725,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G112" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H112" s="7" t="s">
         <x:v>13</x:v>
@@ -10575,7 +11751,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G113" s="7" t="s">
-        <x:v>125</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H113" s="7" t="s">
         <x:v>13</x:v>
@@ -10601,7 +11777,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G114" s="7" t="s">
-        <x:v>125</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H114" s="7" t="s">
         <x:v>13</x:v>
@@ -10627,7 +11803,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G115" s="7" t="s">
-        <x:v>125</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H115" s="7" t="s">
         <x:v>13</x:v>
@@ -10653,7 +11829,7 @@
         <x:v>2686</x:v>
       </x:c>
       <x:c r="G116" s="7" t="s">
-        <x:v>125</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H116" s="7" t="s">
         <x:v>13</x:v>
@@ -10661,7 +11837,7 @@
     </x:row>
     <x:row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A117" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B117" s="7" t="n">
         <x:v>0</x:v>
@@ -10679,7 +11855,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G117" s="7" t="s">
-        <x:v>125</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H117" s="7" t="s">
         <x:v>13</x:v>
@@ -10687,7 +11863,7 @@
     </x:row>
     <x:row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A118" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B118" s="7" t="n">
         <x:v>0</x:v>
@@ -10705,7 +11881,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G118" s="7" t="s">
-        <x:v>125</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H118" s="7" t="s">
         <x:v>13</x:v>
@@ -10731,7 +11907,7 @@
         <x:v>1675</x:v>
       </x:c>
       <x:c r="G119" s="7" t="s">
-        <x:v>126</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H119" s="7" t="s">
         <x:v>13</x:v>
@@ -10757,7 +11933,7 @@
         <x:v>2686</x:v>
       </x:c>
       <x:c r="G120" s="7" t="s">
-        <x:v>126</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H120" s="7" t="s">
         <x:v>13</x:v>
@@ -10783,7 +11959,7 @@
         <x:v>2686</x:v>
       </x:c>
       <x:c r="G121" s="7" t="s">
-        <x:v>126</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H121" s="7" t="s">
         <x:v>13</x:v>
@@ -10809,7 +11985,7 @@
         <x:v>2686</x:v>
       </x:c>
       <x:c r="G122" s="7" t="s">
-        <x:v>126</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H122" s="7" t="s">
         <x:v>13</x:v>
@@ -10817,7 +11993,7 @@
     </x:row>
     <x:row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A123" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B123" s="7" t="n">
         <x:v>0</x:v>
@@ -10835,7 +12011,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G123" s="7" t="s">
-        <x:v>126</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H123" s="7" t="s">
         <x:v>13</x:v>
@@ -10843,7 +12019,7 @@
     </x:row>
     <x:row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A124" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B124" s="7" t="n">
         <x:v>191.978</x:v>
@@ -10861,7 +12037,7 @@
         <x:v>4835</x:v>
       </x:c>
       <x:c r="G124" s="7" t="s">
-        <x:v>126</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H124" s="7" t="s">
         <x:v>13</x:v>
@@ -10887,7 +12063,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G125" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H125" s="7" t="s">
         <x:v>13</x:v>
@@ -10913,7 +12089,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G126" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H126" s="7" t="s">
         <x:v>13</x:v>
@@ -10939,7 +12115,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G127" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H127" s="7" t="s">
         <x:v>13</x:v>
@@ -10965,7 +12141,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G128" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H128" s="7" t="s">
         <x:v>13</x:v>
@@ -10973,7 +12149,7 @@
     </x:row>
     <x:row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A129" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B129" s="7" t="n">
         <x:v>19096.34</x:v>
@@ -10991,7 +12167,7 @@
         <x:v>3820</x:v>
       </x:c>
       <x:c r="G129" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H129" s="7" t="s">
         <x:v>13</x:v>
@@ -10999,7 +12175,7 @@
     </x:row>
     <x:row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A130" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B130" s="7" t="n">
         <x:v>0</x:v>
@@ -11017,7 +12193,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G130" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H130" s="7" t="s">
         <x:v>13</x:v>
@@ -11052,28 +12228,28 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A1" s="9" t="s">
-        <x:v>101</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B1" s="10" t="s">
-        <x:v>85</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C1" s="11" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="11" t="s">
-        <x:v>86</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E1" s="11" t="s">
-        <x:v>87</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F1" s="11" t="s">
-        <x:v>88</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G1" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H1" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -11096,7 +12272,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G2" s="7" t="s">
-        <x:v>103</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H2" s="7" t="s">
         <x:v>13</x:v>
@@ -11122,7 +12298,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G3" s="7" t="s">
-        <x:v>103</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H3" s="7" t="s">
         <x:v>13</x:v>
@@ -11148,7 +12324,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G4" s="7" t="s">
-        <x:v>103</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H4" s="7" t="s">
         <x:v>13</x:v>
@@ -11174,7 +12350,7 @@
         <x:v>500</x:v>
       </x:c>
       <x:c r="G5" s="7" t="s">
-        <x:v>103</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H5" s="7" t="s">
         <x:v>13</x:v>
@@ -11182,7 +12358,7 @@
     </x:row>
     <x:row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A6" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B6" s="7" t="n">
         <x:v>0</x:v>
@@ -11200,7 +12376,7 @@
         <x:v>500</x:v>
       </x:c>
       <x:c r="G6" s="7" t="s">
-        <x:v>103</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H6" s="7" t="s">
         <x:v>13</x:v>
@@ -11208,7 +12384,7 @@
     </x:row>
     <x:row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A7" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B7" s="7" t="n">
         <x:v>0</x:v>
@@ -11226,7 +12402,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G7" s="7" t="s">
-        <x:v>103</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H7" s="7" t="s">
         <x:v>13</x:v>
@@ -11252,7 +12428,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G8" s="7" t="s">
-        <x:v>104</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H8" s="7" t="s">
         <x:v>13</x:v>
@@ -11278,7 +12454,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G9" s="7" t="s">
-        <x:v>104</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H9" s="7" t="s">
         <x:v>13</x:v>
@@ -11304,7 +12480,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G10" s="7" t="s">
-        <x:v>104</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H10" s="7" t="s">
         <x:v>13</x:v>
@@ -11330,7 +12506,7 @@
         <x:v>2100</x:v>
       </x:c>
       <x:c r="G11" s="7" t="s">
-        <x:v>104</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
         <x:v>13</x:v>
@@ -11338,7 +12514,7 @@
     </x:row>
     <x:row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A12" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B12" s="7" t="n">
         <x:v>15090</x:v>
@@ -11356,7 +12532,7 @@
         <x:v>2100</x:v>
       </x:c>
       <x:c r="G12" s="7" t="s">
-        <x:v>104</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H12" s="7" t="s">
         <x:v>13</x:v>
@@ -11364,7 +12540,7 @@
     </x:row>
     <x:row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A13" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B13" s="7" t="n">
         <x:v>0</x:v>
@@ -11382,7 +12558,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G13" s="7" t="s">
-        <x:v>104</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H13" s="7" t="s">
         <x:v>13</x:v>
@@ -11390,7 +12566,7 @@
     </x:row>
     <x:row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A14" s="7" t="s">
-        <x:v>60</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B14" s="7" t="n">
         <x:v>519.506</x:v>
@@ -11408,15 +12584,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G14" s="7" t="s">
-        <x:v>105</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H14" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A15" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B15" s="7" t="n">
         <x:v>286.071</x:v>
@@ -11434,15 +12610,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G15" s="7" t="s">
-        <x:v>105</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H15" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A16" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B16" s="7" t="n">
         <x:v>0.84</x:v>
@@ -11460,10 +12636,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G16" s="7" t="s">
-        <x:v>105</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H16" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -11486,7 +12662,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G17" s="7" t="s">
-        <x:v>106</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H17" s="7" t="s">
         <x:v>13</x:v>
@@ -11512,7 +12688,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G18" s="7" t="s">
-        <x:v>106</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H18" s="7" t="s">
         <x:v>13</x:v>
@@ -11538,7 +12714,7 @@
         <x:v>1204.64</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>106</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H19" s="7" t="s">
         <x:v>13</x:v>
@@ -11564,7 +12740,7 @@
         <x:v>2275.68</x:v>
       </x:c>
       <x:c r="G20" s="7" t="s">
-        <x:v>106</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H20" s="7" t="s">
         <x:v>13</x:v>
@@ -11572,7 +12748,7 @@
     </x:row>
     <x:row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A21" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B21" s="7" t="n">
         <x:v>33510.916</x:v>
@@ -11590,7 +12766,7 @@
         <x:v>1256.27</x:v>
       </x:c>
       <x:c r="G21" s="7" t="s">
-        <x:v>106</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H21" s="7" t="s">
         <x:v>13</x:v>
@@ -11598,7 +12774,7 @@
     </x:row>
     <x:row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A22" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B22" s="7" t="n">
         <x:v>0</x:v>
@@ -11616,7 +12792,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G22" s="7" t="s">
-        <x:v>106</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H22" s="7" t="s">
         <x:v>13</x:v>
@@ -11642,7 +12818,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G23" s="7" t="s">
-        <x:v>107</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H23" s="7" t="s">
         <x:v>13</x:v>
@@ -11668,7 +12844,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G24" s="7" t="s">
-        <x:v>107</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H24" s="7" t="s">
         <x:v>13</x:v>
@@ -11694,7 +12870,7 @@
         <x:v>2108.3</x:v>
       </x:c>
       <x:c r="G25" s="7" t="s">
-        <x:v>107</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H25" s="7" t="s">
         <x:v>13</x:v>
@@ -11720,7 +12896,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G26" s="7" t="s">
-        <x:v>107</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H26" s="7" t="s">
         <x:v>13</x:v>
@@ -11728,7 +12904,7 @@
     </x:row>
     <x:row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A27" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B27" s="7" t="n">
         <x:v>0.069</x:v>
@@ -11746,7 +12922,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G27" s="7" t="s">
-        <x:v>107</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H27" s="7" t="s">
         <x:v>13</x:v>
@@ -11754,7 +12930,7 @@
     </x:row>
     <x:row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A28" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B28" s="7" t="n">
         <x:v>0</x:v>
@@ -11772,7 +12948,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G28" s="7" t="s">
-        <x:v>107</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H28" s="7" t="s">
         <x:v>13</x:v>
@@ -11780,7 +12956,7 @@
     </x:row>
     <x:row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A29" s="7" t="s">
-        <x:v>60</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B29" s="7" t="n">
         <x:v>37514.609</x:v>
@@ -11798,15 +12974,15 @@
         <x:v>2687.7</x:v>
       </x:c>
       <x:c r="G29" s="7" t="s">
-        <x:v>108</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H29" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A30" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B30" s="7" t="n">
         <x:v>11822.834</x:v>
@@ -11824,15 +13000,15 @@
         <x:v>2687.7</x:v>
       </x:c>
       <x:c r="G30" s="7" t="s">
-        <x:v>108</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H30" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A31" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B31" s="7" t="n">
         <x:v>1741.011</x:v>
@@ -11850,10 +13026,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G31" s="7" t="s">
-        <x:v>108</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H31" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -11876,7 +13052,7 @@
         <x:v>1409</x:v>
       </x:c>
       <x:c r="G32" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H32" s="7" t="s">
         <x:v>13</x:v>
@@ -11902,7 +13078,7 @@
         <x:v>1409</x:v>
       </x:c>
       <x:c r="G33" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H33" s="7" t="s">
         <x:v>13</x:v>
@@ -11928,7 +13104,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G34" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H34" s="7" t="s">
         <x:v>13</x:v>
@@ -11954,7 +13130,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G35" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H35" s="7" t="s">
         <x:v>13</x:v>
@@ -11962,7 +13138,7 @@
     </x:row>
     <x:row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A36" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B36" s="7" t="n">
         <x:v>88559.45</x:v>
@@ -11980,7 +13156,7 @@
         <x:v>1900</x:v>
       </x:c>
       <x:c r="G36" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H36" s="7" t="s">
         <x:v>13</x:v>
@@ -11988,7 +13164,7 @@
     </x:row>
     <x:row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A37" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B37" s="7" t="n">
         <x:v>44912.07</x:v>
@@ -12006,7 +13182,7 @@
         <x:v>2743</x:v>
       </x:c>
       <x:c r="G37" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H37" s="7" t="s">
         <x:v>13</x:v>
@@ -12032,7 +13208,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G38" s="7" t="s">
-        <x:v>110</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H38" s="7" t="s">
         <x:v>13</x:v>
@@ -12058,7 +13234,7 @@
         <x:v>1823.84</x:v>
       </x:c>
       <x:c r="G39" s="7" t="s">
-        <x:v>110</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H39" s="7" t="s">
         <x:v>13</x:v>
@@ -12084,7 +13260,7 @@
         <x:v>1409</x:v>
       </x:c>
       <x:c r="G40" s="7" t="s">
-        <x:v>110</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H40" s="7" t="s">
         <x:v>13</x:v>
@@ -12110,7 +13286,7 @@
         <x:v>1254.44</x:v>
       </x:c>
       <x:c r="G41" s="7" t="s">
-        <x:v>110</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H41" s="7" t="s">
         <x:v>13</x:v>
@@ -12118,7 +13294,7 @@
     </x:row>
     <x:row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A42" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B42" s="7" t="n">
         <x:v>109542.259</x:v>
@@ -12136,7 +13312,7 @@
         <x:v>1866.83</x:v>
       </x:c>
       <x:c r="G42" s="7" t="s">
-        <x:v>110</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H42" s="7" t="s">
         <x:v>13</x:v>
@@ -12144,7 +13320,7 @@
     </x:row>
     <x:row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A43" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B43" s="7" t="n">
         <x:v>0</x:v>
@@ -12162,7 +13338,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G43" s="7" t="s">
-        <x:v>110</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H43" s="7" t="s">
         <x:v>13</x:v>
@@ -12170,7 +13346,7 @@
     </x:row>
     <x:row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A44" s="7" t="s">
-        <x:v>60</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B44" s="7" t="n">
         <x:v>8098.226</x:v>
@@ -12188,15 +13364,15 @@
         <x:v>819.29</x:v>
       </x:c>
       <x:c r="G44" s="7" t="s">
-        <x:v>111</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H44" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A45" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B45" s="7" t="n">
         <x:v>3063.537</x:v>
@@ -12214,15 +13390,15 @@
         <x:v>819.29</x:v>
       </x:c>
       <x:c r="G45" s="7" t="s">
-        <x:v>111</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H45" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A46" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B46" s="7" t="n">
         <x:v>0</x:v>
@@ -12240,15 +13416,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G46" s="7" t="s">
-        <x:v>111</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H46" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A47" s="7" t="s">
-        <x:v>60</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B47" s="7" t="n">
         <x:v>13735.066</x:v>
@@ -12266,15 +13442,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G47" s="7" t="s">
-        <x:v>112</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H47" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A48" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B48" s="7" t="n">
         <x:v>6368.154</x:v>
@@ -12292,15 +13468,15 @@
         <x:v>8300</x:v>
       </x:c>
       <x:c r="G48" s="7" t="s">
-        <x:v>112</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H48" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A49" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B49" s="7" t="n">
         <x:v>0</x:v>
@@ -12318,10 +13494,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G49" s="7" t="s">
-        <x:v>112</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H49" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -12344,7 +13520,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G50" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H50" s="7" t="s">
         <x:v>13</x:v>
@@ -12370,7 +13546,7 @@
         <x:v>1428.45</x:v>
       </x:c>
       <x:c r="G51" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H51" s="7" t="s">
         <x:v>13</x:v>
@@ -12396,7 +13572,7 @@
         <x:v>743.82</x:v>
       </x:c>
       <x:c r="G52" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H52" s="7" t="s">
         <x:v>13</x:v>
@@ -12422,7 +13598,7 @@
         <x:v>2777.04</x:v>
       </x:c>
       <x:c r="G53" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H53" s="7" t="s">
         <x:v>13</x:v>
@@ -12430,7 +13606,7 @@
     </x:row>
     <x:row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A54" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B54" s="7" t="n">
         <x:v>174044.845</x:v>
@@ -12448,7 +13624,7 @@
         <x:v>1637.14</x:v>
       </x:c>
       <x:c r="G54" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H54" s="7" t="s">
         <x:v>13</x:v>
@@ -12456,7 +13632,7 @@
     </x:row>
     <x:row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A55" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B55" s="7" t="n">
         <x:v>0.002</x:v>
@@ -12474,7 +13650,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G55" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H55" s="7" t="s">
         <x:v>13</x:v>
@@ -12500,7 +13676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G56" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H56" s="7" t="s">
         <x:v>13</x:v>
@@ -12526,7 +13702,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G57" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H57" s="7" t="s">
         <x:v>13</x:v>
@@ -12552,7 +13728,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G58" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H58" s="7" t="s">
         <x:v>13</x:v>
@@ -12578,7 +13754,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G59" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H59" s="7" t="s">
         <x:v>13</x:v>
@@ -12586,7 +13762,7 @@
     </x:row>
     <x:row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A60" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B60" s="7" t="n">
         <x:v>0</x:v>
@@ -12604,7 +13780,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G60" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H60" s="7" t="s">
         <x:v>13</x:v>
@@ -12612,7 +13788,7 @@
     </x:row>
     <x:row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A61" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B61" s="7" t="n">
         <x:v>0</x:v>
@@ -12630,7 +13806,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G61" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H61" s="7" t="s">
         <x:v>13</x:v>
@@ -12656,7 +13832,7 @@
         <x:v>597.746</x:v>
       </x:c>
       <x:c r="G62" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H62" s="7" t="s">
         <x:v>13</x:v>
@@ -12682,7 +13858,7 @@
         <x:v>1150</x:v>
       </x:c>
       <x:c r="G63" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H63" s="7" t="s">
         <x:v>13</x:v>
@@ -12708,7 +13884,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G64" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H64" s="7" t="s">
         <x:v>13</x:v>
@@ -12734,7 +13910,7 @@
         <x:v>1228.6</x:v>
       </x:c>
       <x:c r="G65" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H65" s="7" t="s">
         <x:v>13</x:v>
@@ -12742,7 +13918,7 @@
     </x:row>
     <x:row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A66" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B66" s="7" t="n">
         <x:v>4878.54</x:v>
@@ -12760,7 +13936,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G66" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H66" s="7" t="s">
         <x:v>13</x:v>
@@ -12768,7 +13944,7 @@
     </x:row>
     <x:row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A67" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B67" s="7" t="n">
         <x:v>0</x:v>
@@ -12786,7 +13962,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G67" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H67" s="7" t="s">
         <x:v>13</x:v>
@@ -12794,7 +13970,7 @@
     </x:row>
     <x:row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A68" s="7" t="s">
-        <x:v>60</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B68" s="7" t="n">
         <x:v>7377.22</x:v>
@@ -12812,15 +13988,15 @@
         <x:v>5617.1</x:v>
       </x:c>
       <x:c r="G68" s="7" t="s">
-        <x:v>116</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H68" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A69" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B69" s="7" t="n">
         <x:v>7536.724</x:v>
@@ -12838,15 +14014,15 @@
         <x:v>5617.1</x:v>
       </x:c>
       <x:c r="G69" s="7" t="s">
-        <x:v>116</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H69" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A70" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B70" s="7" t="n">
         <x:v>0</x:v>
@@ -12864,15 +14040,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G70" s="7" t="s">
-        <x:v>116</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H70" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A71" s="7" t="s">
-        <x:v>60</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B71" s="7" t="n">
         <x:v>4615.77</x:v>
@@ -12890,15 +14066,15 @@
         <x:v>4065.48</x:v>
       </x:c>
       <x:c r="G71" s="7" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="H71" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A72" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B72" s="7" t="n">
         <x:v>11144.323</x:v>
@@ -12916,15 +14092,15 @@
         <x:v>4065.48</x:v>
       </x:c>
       <x:c r="G72" s="7" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="H72" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A73" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B73" s="7" t="n">
         <x:v>17721.759</x:v>
@@ -12942,10 +14118,10 @@
         <x:v>4065.48</x:v>
       </x:c>
       <x:c r="G73" s="7" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="H73" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -12968,7 +14144,7 @@
         <x:v>1097</x:v>
       </x:c>
       <x:c r="G74" s="7" t="s">
-        <x:v>118</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H74" s="7" t="s">
         <x:v>13</x:v>
@@ -12994,7 +14170,7 @@
         <x:v>1097</x:v>
       </x:c>
       <x:c r="G75" s="7" t="s">
-        <x:v>118</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H75" s="7" t="s">
         <x:v>13</x:v>
@@ -13020,7 +14196,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G76" s="7" t="s">
-        <x:v>118</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H76" s="7" t="s">
         <x:v>13</x:v>
@@ -13046,7 +14222,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G77" s="7" t="s">
-        <x:v>118</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H77" s="7" t="s">
         <x:v>13</x:v>
@@ -13054,7 +14230,7 @@
     </x:row>
     <x:row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A78" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B78" s="7" t="n">
         <x:v>427675.591</x:v>
@@ -13072,7 +14248,7 @@
         <x:v>1808</x:v>
       </x:c>
       <x:c r="G78" s="7" t="s">
-        <x:v>118</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H78" s="7" t="s">
         <x:v>13</x:v>
@@ -13080,7 +14256,7 @@
     </x:row>
     <x:row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A79" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B79" s="7" t="n">
         <x:v>0</x:v>
@@ -13098,7 +14274,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G79" s="7" t="s">
-        <x:v>118</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H79" s="7" t="s">
         <x:v>13</x:v>
@@ -13124,7 +14300,7 @@
         <x:v>778.24</x:v>
       </x:c>
       <x:c r="G80" s="7" t="s">
-        <x:v>119</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H80" s="7" t="s">
         <x:v>13</x:v>
@@ -13150,7 +14326,7 @@
         <x:v>772.57</x:v>
       </x:c>
       <x:c r="G81" s="7" t="s">
-        <x:v>119</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H81" s="7" t="s">
         <x:v>13</x:v>
@@ -13176,7 +14352,7 @@
         <x:v>800</x:v>
       </x:c>
       <x:c r="G82" s="7" t="s">
-        <x:v>119</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H82" s="7" t="s">
         <x:v>13</x:v>
@@ -13202,7 +14378,7 @@
         <x:v>1409</x:v>
       </x:c>
       <x:c r="G83" s="7" t="s">
-        <x:v>119</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H83" s="7" t="s">
         <x:v>13</x:v>
@@ -13210,7 +14386,7 @@
     </x:row>
     <x:row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A84" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B84" s="7" t="n">
         <x:v>-4626.69</x:v>
@@ -13228,7 +14404,7 @@
         <x:v>2111</x:v>
       </x:c>
       <x:c r="G84" s="7" t="s">
-        <x:v>119</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H84" s="7" t="s">
         <x:v>13</x:v>
@@ -13236,7 +14412,7 @@
     </x:row>
     <x:row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A85" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B85" s="7" t="n">
         <x:v>-3429.5</x:v>
@@ -13254,7 +14430,7 @@
         <x:v>2743</x:v>
       </x:c>
       <x:c r="G85" s="7" t="s">
-        <x:v>119</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H85" s="7" t="s">
         <x:v>13</x:v>
@@ -13262,7 +14438,7 @@
     </x:row>
     <x:row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A86" s="7" t="s">
-        <x:v>60</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B86" s="7" t="n">
         <x:v>7601.07</x:v>
@@ -13280,15 +14456,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G86" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H86" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A87" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B87" s="7" t="n">
         <x:v>2113.295</x:v>
@@ -13306,15 +14482,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G87" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H87" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A88" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B88" s="7" t="n">
         <x:v>0</x:v>
@@ -13332,10 +14508,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G88" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H88" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -13358,7 +14534,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G89" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H89" s="7" t="s">
         <x:v>13</x:v>
@@ -13384,7 +14560,7 @@
         <x:v>750</x:v>
       </x:c>
       <x:c r="G90" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H90" s="7" t="s">
         <x:v>13</x:v>
@@ -13410,7 +14586,7 @@
         <x:v>750</x:v>
       </x:c>
       <x:c r="G91" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H91" s="7" t="s">
         <x:v>13</x:v>
@@ -13436,7 +14612,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G92" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H92" s="7" t="s">
         <x:v>13</x:v>
@@ -13444,7 +14620,7 @@
     </x:row>
     <x:row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A93" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B93" s="7" t="n">
         <x:v>15.964</x:v>
@@ -13462,7 +14638,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G93" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H93" s="7" t="s">
         <x:v>13</x:v>
@@ -13470,7 +14646,7 @@
     </x:row>
     <x:row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A94" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B94" s="7" t="n">
         <x:v>21548.77</x:v>
@@ -13488,7 +14664,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G94" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H94" s="7" t="s">
         <x:v>13</x:v>
@@ -13514,7 +14690,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G95" s="7" t="s">
-        <x:v>122</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H95" s="7" t="s">
         <x:v>13</x:v>
@@ -13540,7 +14716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G96" s="7" t="s">
-        <x:v>122</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H96" s="7" t="s">
         <x:v>13</x:v>
@@ -13566,7 +14742,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G97" s="7" t="s">
-        <x:v>122</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H97" s="7" t="s">
         <x:v>13</x:v>
@@ -13592,7 +14768,7 @@
         <x:v>613.84</x:v>
       </x:c>
       <x:c r="G98" s="7" t="s">
-        <x:v>122</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H98" s="7" t="s">
         <x:v>13</x:v>
@@ -13600,7 +14776,7 @@
     </x:row>
     <x:row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A99" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B99" s="7" t="n">
         <x:v>0</x:v>
@@ -13618,7 +14794,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G99" s="7" t="s">
-        <x:v>122</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H99" s="7" t="s">
         <x:v>13</x:v>
@@ -13626,7 +14802,7 @@
     </x:row>
     <x:row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A100" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B100" s="7" t="n">
         <x:v>0</x:v>
@@ -13644,7 +14820,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G100" s="7" t="s">
-        <x:v>122</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H100" s="7" t="s">
         <x:v>13</x:v>
@@ -13670,7 +14846,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G101" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H101" s="7" t="s">
         <x:v>13</x:v>
@@ -13696,7 +14872,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G102" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H102" s="7" t="s">
         <x:v>13</x:v>
@@ -13722,7 +14898,7 @@
         <x:v>1409</x:v>
       </x:c>
       <x:c r="G103" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H103" s="7" t="s">
         <x:v>13</x:v>
@@ -13748,7 +14924,7 @@
         <x:v>1409</x:v>
       </x:c>
       <x:c r="G104" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H104" s="7" t="s">
         <x:v>13</x:v>
@@ -13756,7 +14932,7 @@
     </x:row>
     <x:row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A105" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B105" s="7" t="n">
         <x:v>0</x:v>
@@ -13774,7 +14950,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G105" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H105" s="7" t="s">
         <x:v>13</x:v>
@@ -13782,7 +14958,7 @@
     </x:row>
     <x:row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A106" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B106" s="7" t="n">
         <x:v>0</x:v>
@@ -13800,7 +14976,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G106" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H106" s="7" t="s">
         <x:v>13</x:v>
@@ -13826,7 +15002,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G107" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H107" s="7" t="s">
         <x:v>13</x:v>
@@ -13852,7 +15028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G108" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H108" s="7" t="s">
         <x:v>13</x:v>
@@ -13878,7 +15054,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G109" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H109" s="7" t="s">
         <x:v>13</x:v>
@@ -13904,7 +15080,7 @@
         <x:v>528.72</x:v>
       </x:c>
       <x:c r="G110" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H110" s="7" t="s">
         <x:v>13</x:v>
@@ -13912,7 +15088,7 @@
     </x:row>
     <x:row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A111" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B111" s="7" t="n">
         <x:v>0</x:v>
@@ -13930,7 +15106,7 @@
         <x:v>528.72</x:v>
       </x:c>
       <x:c r="G111" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H111" s="7" t="s">
         <x:v>13</x:v>
@@ -13938,7 +15114,7 @@
     </x:row>
     <x:row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A112" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B112" s="7" t="n">
         <x:v>0</x:v>
@@ -13956,7 +15132,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G112" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H112" s="7" t="s">
         <x:v>13</x:v>
@@ -13982,7 +15158,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G113" s="7" t="s">
-        <x:v>125</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H113" s="7" t="s">
         <x:v>13</x:v>
@@ -14008,7 +15184,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G114" s="7" t="s">
-        <x:v>125</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H114" s="7" t="s">
         <x:v>13</x:v>
@@ -14034,7 +15210,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G115" s="7" t="s">
-        <x:v>125</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H115" s="7" t="s">
         <x:v>13</x:v>
@@ -14060,7 +15236,7 @@
         <x:v>1409</x:v>
       </x:c>
       <x:c r="G116" s="7" t="s">
-        <x:v>125</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H116" s="7" t="s">
         <x:v>13</x:v>
@@ -14068,7 +15244,7 @@
     </x:row>
     <x:row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A117" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B117" s="7" t="n">
         <x:v>0</x:v>
@@ -14086,7 +15262,7 @@
         <x:v>2111</x:v>
       </x:c>
       <x:c r="G117" s="7" t="s">
-        <x:v>125</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H117" s="7" t="s">
         <x:v>13</x:v>
@@ -14094,7 +15270,7 @@
     </x:row>
     <x:row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A118" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B118" s="7" t="n">
         <x:v>0</x:v>
@@ -14112,7 +15288,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G118" s="7" t="s">
-        <x:v>125</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H118" s="7" t="s">
         <x:v>13</x:v>
@@ -14138,7 +15314,7 @@
         <x:v>1409</x:v>
       </x:c>
       <x:c r="G119" s="7" t="s">
-        <x:v>126</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H119" s="7" t="s">
         <x:v>13</x:v>
@@ -14164,7 +15340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G120" s="7" t="s">
-        <x:v>126</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H120" s="7" t="s">
         <x:v>13</x:v>
@@ -14190,7 +15366,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G121" s="7" t="s">
-        <x:v>126</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H121" s="7" t="s">
         <x:v>13</x:v>
@@ -14216,7 +15392,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G122" s="7" t="s">
-        <x:v>126</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H122" s="7" t="s">
         <x:v>13</x:v>
@@ -14224,7 +15400,7 @@
     </x:row>
     <x:row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A123" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B123" s="7" t="n">
         <x:v>0</x:v>
@@ -14242,7 +15418,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G123" s="7" t="s">
-        <x:v>126</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H123" s="7" t="s">
         <x:v>13</x:v>
@@ -14250,7 +15426,7 @@
     </x:row>
     <x:row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A124" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B124" s="7" t="n">
         <x:v>0</x:v>
@@ -14268,7 +15444,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G124" s="7" t="s">
-        <x:v>126</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="H124" s="7" t="s">
         <x:v>13</x:v>
@@ -14294,7 +15470,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G125" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H125" s="7" t="s">
         <x:v>13</x:v>
@@ -14320,7 +15496,7 @@
         <x:v>1208</x:v>
       </x:c>
       <x:c r="G126" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H126" s="7" t="s">
         <x:v>13</x:v>
@@ -14346,7 +15522,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G127" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H127" s="7" t="s">
         <x:v>13</x:v>
@@ -14372,7 +15548,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G128" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H128" s="7" t="s">
         <x:v>13</x:v>
@@ -14380,7 +15556,7 @@
     </x:row>
     <x:row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A129" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B129" s="7" t="n">
         <x:v>0</x:v>
@@ -14398,7 +15574,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G129" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H129" s="7" t="s">
         <x:v>13</x:v>
@@ -14406,7 +15582,7 @@
     </x:row>
     <x:row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A130" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B130" s="7" t="n">
         <x:v>0</x:v>
@@ -14424,7 +15600,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G130" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H130" s="7" t="s">
         <x:v>13</x:v>
@@ -14459,25 +15635,25 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A1" s="10" t="s">
-        <x:v>85</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B1" s="11" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C1" s="11" t="s">
-        <x:v>86</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D1" s="11" t="s">
-        <x:v>87</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E1" s="11" t="s">
-        <x:v>88</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F1" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G1" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -14497,7 +15673,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2" s="7" t="s">
-        <x:v>103</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G2" s="7" t="s">
         <x:v>13</x:v>
@@ -14520,7 +15696,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F3" s="7" t="s">
-        <x:v>104</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G3" s="7" t="s">
         <x:v>13</x:v>
@@ -14543,10 +15719,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F4" s="7" t="s">
-        <x:v>105</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G4" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -14566,7 +15742,7 @@
         <x:v>2200.02</x:v>
       </x:c>
       <x:c r="F5" s="7" t="s">
-        <x:v>106</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G5" s="7" t="s">
         <x:v>13</x:v>
@@ -14589,7 +15765,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F6" s="7" t="s">
-        <x:v>107</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G6" s="7" t="s">
         <x:v>13</x:v>
@@ -14612,10 +15788,10 @@
         <x:v>5632.31</x:v>
       </x:c>
       <x:c r="F7" s="7" t="s">
-        <x:v>108</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G7" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -14635,7 +15811,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F8" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G8" s="7" t="s">
         <x:v>13</x:v>
@@ -14658,7 +15834,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>110</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G9" s="7" t="s">
         <x:v>13</x:v>
@@ -14681,10 +15857,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F10" s="7" t="s">
-        <x:v>111</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G10" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -14704,10 +15880,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>112</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G11" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -14727,7 +15903,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>113</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G12" s="7" t="s">
         <x:v>13</x:v>
@@ -14750,7 +15926,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F13" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G13" s="7" t="s">
         <x:v>13</x:v>
@@ -14773,7 +15949,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F14" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G14" s="7" t="s">
         <x:v>13</x:v>
@@ -14796,10 +15972,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>116</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G15" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -14819,10 +15995,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F16" s="7" t="s">
-        <x:v>117</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G16" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -14842,7 +16018,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F17" s="7" t="s">
-        <x:v>118</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G17" s="7" t="s">
         <x:v>13</x:v>
@@ -14865,7 +16041,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F18" s="7" t="s">
-        <x:v>119</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G18" s="7" t="s">
         <x:v>13</x:v>
@@ -14888,10 +16064,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G19" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -14911,7 +16087,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>121</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G20" s="7" t="s">
         <x:v>13</x:v>
@@ -14934,7 +16110,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F21" s="7" t="s">
-        <x:v>122</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G21" s="7" t="s">
         <x:v>13</x:v>
@@ -14957,7 +16133,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F22" s="7" t="s">
-        <x:v>123</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G22" s="7" t="s">
         <x:v>13</x:v>
@@ -14980,7 +16156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F23" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G23" s="7" t="s">
         <x:v>13</x:v>
@@ -15003,7 +16179,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F24" s="7" t="s">
-        <x:v>125</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G24" s="7" t="s">
         <x:v>13</x:v>
@@ -15026,7 +16202,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F25" s="7" t="s">
-        <x:v>126</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G25" s="7" t="s">
         <x:v>13</x:v>
@@ -15049,7 +16225,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F26" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G26" s="7" t="s">
         <x:v>13</x:v>
